--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1964207.919973263</v>
+        <v>1937864.61709872</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>35.1845461973512</v>
       </c>
       <c r="C2" t="n">
-        <v>14.96435308057242</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,46 +829,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.170977004479181</v>
+      </c>
+      <c r="T4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>232.8330857361503</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>39.22843699817284</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,16 +1023,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>178.6958490491743</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>40.23748444544582</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>216.7902623649748</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>131.6569509852728</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,61 +1382,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="20">
@@ -2087,58 +2087,58 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>82.69355372315668</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>95.23425580603923</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>81.36663396216805</v>
+        <v>16.91764852537559</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>91.27710770251062</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>19.72793538656374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>73.7244075246944</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>19.00517942505802</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.2413311422792</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,64 +3193,64 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -3308,22 +3308,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="S35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.86695539771652</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>91.50669975083359</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,58 +3433,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3545,19 +3545,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>120.762787058325</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>123.881452240379</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>118.2864869391949</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3910,46 +3910,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4077,7 +4077,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>207.8599148582488</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>111.2951716674721</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>178.5101703859089</v>
       </c>
       <c r="C2" t="n">
-        <v>80.73687329735785</v>
+        <v>178.5101703859089</v>
       </c>
       <c r="D2" t="n">
-        <v>80.73687329735785</v>
+        <v>124.457110779899</v>
       </c>
       <c r="E2" t="n">
-        <v>26.68381369134799</v>
+        <v>124.457110779899</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4349,31 +4349,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>105.9439968277793</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
         <v>5.035134973581694</v>
@@ -4413,28 +4413,28 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
         <v>105.9439968277793</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3871215328157</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>112.3871215328157</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>112.3871215328157</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>112.3871215328157</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>26.77543850855644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E5" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F5" t="n">
-        <v>467.067986854209</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.9694238887622</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9694238887622</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>478.8011081705279</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>319.5636531650724</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>173.0290951919573</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,16 +4653,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>508.9694238887622</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>508.9694238887622</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>508.9694238887622</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>508.9694238887622</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X6" t="n">
-        <v>508.9694238887622</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.9694238887622</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>318.8311540579298</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>303.3738434365813</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>59.92506679248123</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>556.4834623371476</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>556.4834623371476</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
         <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4917,16 +4917,16 @@
         <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>470.4902185192667</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>227.0414418751666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>556.4834623371476</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4996,16 +4996,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5069,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,13 +5361,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,46 +5598,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="19">
@@ -5692,28 +5692,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8099852548154</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8099852548154</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8099852548154</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8099852548154</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F21" t="n">
-        <v>102.8099852548154</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>102.8099852548154</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>102.8099852548154</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5841,13 +5841,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>867.860937524738</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.8099852548154</v>
+        <v>452.2491385542513</v>
       </c>
     </row>
     <row r="22">
@@ -5944,13 +5944,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>274.0360370837871</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>274.0360370837871</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.0360370837871</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>430.5683595072983</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C24" t="n">
-        <v>256.1153302261713</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>256.1153302261713</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>881.8686363569311</v>
+        <v>946.9686216466205</v>
       </c>
       <c r="S24" t="n">
-        <v>881.8686363569311</v>
+        <v>946.9686216466205</v>
       </c>
       <c r="T24" t="n">
-        <v>881.8686363569311</v>
+        <v>946.9686216466205</v>
       </c>
       <c r="U24" t="n">
-        <v>881.8686363569311</v>
+        <v>946.9686216466205</v>
       </c>
       <c r="V24" t="n">
-        <v>881.8686363569311</v>
+        <v>946.9686216466205</v>
       </c>
       <c r="W24" t="n">
-        <v>638.4198597128311</v>
+        <v>703.5198450025204</v>
       </c>
       <c r="X24" t="n">
-        <v>430.5683595072983</v>
+        <v>495.6683447969875</v>
       </c>
       <c r="Y24" t="n">
-        <v>430.5683595072983</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>417.2522547781879</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C27" t="n">
-        <v>417.2522547781879</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D27" t="n">
-        <v>417.2522547781879</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E27" t="n">
-        <v>258.0147997727324</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F27" t="n">
-        <v>111.4802417996174</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>417.2522547781879</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>417.2522547781879</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>417.2522547781879</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.3847606029253</v>
+        <v>345.004439675971</v>
       </c>
       <c r="C30" t="n">
-        <v>492.3847606029253</v>
+        <v>345.004439675971</v>
       </c>
       <c r="D30" t="n">
-        <v>492.3847606029253</v>
+        <v>345.004439675971</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>185.7669846705155</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>39.23242669740048</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>39.23242669740048</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X30" t="n">
-        <v>492.3847606029253</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y30" t="n">
-        <v>492.3847606029253</v>
+        <v>345.004439675971</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X32" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>419.2021945682071</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>270.2677849069559</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>270.2677849069559</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>270.2677849069559</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6789,7 +6789,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>475.3318284112885</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
         <v>231.8830517671884</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>962.2293816994886</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>962.2293816994886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W35" t="n">
-        <v>962.2293816994886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X35" t="n">
-        <v>962.2293816994886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y35" t="n">
-        <v>718.7806050553886</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D36" t="n">
-        <v>478.8011081705279</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>319.5636531650724</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>173.0290951919573</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>34.29826977457284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>34.29826977457284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>770.456616214195</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>770.456616214195</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>770.456616214195</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>535.3045079824524</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>535.3045079824524</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>327.4530077769195</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7132,13 +7132,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>290.1981659616912</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7287,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>290.1981659616912</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y39" t="n">
-        <v>290.1981659616912</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="40">
@@ -7309,7 +7309,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
         <v>829.5248650203655</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
         <v>19.28114311021272</v>
@@ -7430,19 +7430,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
         <v>506.1786963984129</v>
@@ -7451,7 +7451,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
         <v>262.7299197543128</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.6502787026334</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>838.9243754698493</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="U42" t="n">
-        <v>367.8023869343761</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V42" t="n">
-        <v>132.6502787026334</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W42" t="n">
-        <v>132.6502787026334</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X42" t="n">
-        <v>132.6502787026334</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y42" t="n">
-        <v>132.6502787026334</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
         <v>829.5248650203655</v>
@@ -7597,22 +7597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U44" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V44" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W44" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>546.3373467878552</v>
+        <v>683.4224531698892</v>
       </c>
       <c r="C45" t="n">
-        <v>371.8843175067282</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D45" t="n">
-        <v>222.9499078454769</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E45" t="n">
-        <v>222.9499078454769</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,16 +7731,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7761,16 +7761,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>754.0976455528091</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>754.0976455528091</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>754.0976455528091</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>546.3373467878552</v>
+        <v>851.6377901899573</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J46" t="n">
         <v>829.5248650203655</v>
@@ -7846,10 +7846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>271.4402576706899</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
@@ -7991,7 +7991,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8061,22 +8061,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9969,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,13 +10194,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,10 +10437,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,19 +11379,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,13 +23932,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="20">
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,22 +24011,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>6.703079128258395</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,7 +24099,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,7 +24108,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>156.4607273548804</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>328.2817459595876</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,7 +24303,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>18.79120019047508</v>
+        <v>83.24018562726755</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24409,13 +24409,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,7 +24443,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24488,22 +24488,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>46.06640946070002</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>54.73595870413449</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,10 +24576,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24680,25 +24680,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>387.1481103551477</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>83.92067293070654</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>93.23026481143845</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24807,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,10 +24968,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24980,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,10 +25008,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>1.102186020931413</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>100.9443125299447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25196,22 +25196,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="S35" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25242,16 +25242,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>74.52967745369855</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>80.17647135300423</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25433,19 +25433,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>51.94571192999076</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25549,10 +25549,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>47.80171886345882</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>107.6548951417799</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,25 +25913,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>114.952062997102</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25965,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26001,7 +26001,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>24.94067229117647</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>94.38752410983223</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26044,7 +26044,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340748.4685793751</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793751</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
@@ -26326,13 +26326,13 @@
         <v>257549.0424235651</v>
       </c>
       <c r="G2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="H2" t="n">
         <v>257549.0424235651</v>
       </c>
       <c r="I2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="J2" t="n">
         <v>257549.0424235652</v>
@@ -26341,13 +26341,13 @@
         <v>257549.0424235651</v>
       </c>
       <c r="L2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="M2" t="n">
         <v>257549.0424235651</v>
       </c>
       <c r="N2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="O2" t="n">
         <v>257549.0424235651</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339491.5823438202</v>
+        <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="D4" t="n">
-        <v>292606.3788338369</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242001.3482777931</v>
+        <v>239628.0562379175</v>
       </c>
       <c r="C6" t="n">
-        <v>234843.4018605529</v>
+        <v>231589.5634189495</v>
       </c>
       <c r="D6" t="n">
-        <v>295419.7240472208</v>
+        <v>292165.8856056178</v>
       </c>
       <c r="E6" t="n">
-        <v>229234.522460426</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="F6" t="n">
-        <v>229234.522460426</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="G6" t="n">
-        <v>229234.5224604261</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="H6" t="n">
-        <v>229234.522460426</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="I6" t="n">
-        <v>229234.5224604261</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="J6" t="n">
-        <v>215233.2903201468</v>
+        <v>211979.4518785434</v>
       </c>
       <c r="K6" t="n">
-        <v>180977.5695267933</v>
+        <v>177723.73108519</v>
       </c>
       <c r="L6" t="n">
-        <v>229234.5224604261</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="M6" t="n">
-        <v>229234.522460426</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="N6" t="n">
-        <v>229234.522460426</v>
+        <v>225980.6840188227</v>
       </c>
       <c r="O6" t="n">
-        <v>229234.522460426</v>
+        <v>225980.6840188226</v>
       </c>
       <c r="P6" t="n">
-        <v>229234.522460426</v>
+        <v>225980.6840188226</v>
       </c>
     </row>
   </sheetData>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>347.5492954661294</v>
       </c>
       <c r="C2" t="n">
-        <v>350.3085386904351</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>90.95627293750474</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>43.00938862570919</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>141.0849115331593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.478450348509</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>222.8456210324931</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27628,13 +27628,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>182.4696517789847</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27667,16 +27667,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>98.1150801650378</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>21.46887964564732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>170.2384051249601</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>16.01032478445043</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>74.02574479203156</v>
       </c>
     </row>
     <row r="10">
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>141.2201675643428</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34781,22 +34781,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,22 +35966,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,16 +36446,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36689,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,13 +36914,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37871,13 +37871,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1937864.61709872</v>
+        <v>1940188.288912588</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.1845461973512</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.015063725959907</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>46.38724422570589</v>
-      </c>
-      <c r="H3" t="n">
-        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.170977004479181</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>230.2038249569697</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.22843699817284</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>182.9373317249799</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,58 +1150,58 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>178.157313031983</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>40.23748444544582</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1215,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>84.19667283955532</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.6569509852728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.86372679529251</v>
+      </c>
+      <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.13484214871499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>122.2716936111519</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1850,61 +1852,61 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1932,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1974,19 +1976,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>110.2663810089075</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.10628614960025</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>95.23425580603923</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>16.91764852537559</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="D29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>19.00517942505802</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>196.5315760613044</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2965,55 +2967,55 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,16 +3116,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.2413311422792</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>79.65980772525472</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>91.50669975083359</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>39.73236965983988</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>123.881452240379</v>
+        <v>118.7764738957966</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4058,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>96.06641246444056</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>111.2951716674721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>178.5101703859089</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="C2" t="n">
-        <v>178.5101703859089</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="D2" t="n">
-        <v>124.457110779899</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="E2" t="n">
-        <v>124.457110779899</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
         <v>16.35099156787933</v>
@@ -4334,13 +4336,13 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4349,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>146.859922150451</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.050116039799</v>
+        <v>38.75380293843134</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
         <v>105.9439968277793</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9439968277793</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4413,46 +4415,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="T3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="S3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="T3" t="n">
-        <v>105.9439968277793</v>
-      </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>495.259035872464</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
-        <v>251.810259228364</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>495.259035872464</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>495.259035872464</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>495.259035872464</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>495.259035872464</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627.7355178317791</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="C6" t="n">
-        <v>627.7355178317791</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D6" t="n">
-        <v>478.8011081705279</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>319.5636531650724</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>173.0290951919573</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>475.9158478617022</v>
       </c>
       <c r="W6" t="n">
-        <v>627.7355178317791</v>
+        <v>475.9158478617022</v>
       </c>
       <c r="X6" t="n">
-        <v>627.7355178317791</v>
+        <v>475.9158478617022</v>
       </c>
       <c r="Y6" t="n">
-        <v>627.7355178317791</v>
+        <v>475.9158478617022</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>325.7766548071333</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>318.8311540579298</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>303.3738434365813</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>59.92506679248123</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X8" t="n">
-        <v>569.2254314512334</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>556.4834623371476</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C9" t="n">
-        <v>556.4834623371476</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>407.5490526758962</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>248.3115976704407</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>248.3115976704407</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>575.6538871399089</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y9" t="n">
-        <v>556.4834623371476</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="10">
@@ -4978,22 +4980,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
         <v>41.77557929797318</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U11" t="n">
-        <v>738.7078125165641</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>901.2946886937524</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="C12" t="n">
-        <v>726.8416594126254</v>
+        <v>142.7879043335984</v>
       </c>
       <c r="D12" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,16 +5129,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5154,16 +5156,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="13">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5546,19 +5548,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5604,13 +5606,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>578.0900986769104</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>578.0900986769104</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>578.0900986769104</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>578.0900986769104</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>370.2385984713777</v>
       </c>
     </row>
     <row r="19">
@@ -5692,28 +5694,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>284.0338015341832</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="C21" t="n">
-        <v>109.5807722530562</v>
+        <v>556.4834623371476</v>
       </c>
       <c r="D21" t="n">
-        <v>109.5807722530562</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="E21" t="n">
-        <v>109.5807722530562</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G21" t="n">
         <v>109.5807722530562</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>904.3538361676057</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="W21" t="n">
-        <v>867.860937524738</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="X21" t="n">
-        <v>660.0094373192052</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="Y21" t="n">
-        <v>452.2491385542513</v>
+        <v>730.9364916182745</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.4530077769195</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>946.9686216466205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>946.9686216466205</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>946.9686216466205</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>946.9686216466205</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>946.9686216466205</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>703.5198450025204</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>495.6683447969875</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>495.6683447969875</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,13 +6247,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
         <v>749.627473042513</v>
@@ -6260,16 +6262,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6499,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>185.7669846705155</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>39.23242669740048</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>39.23242669740048</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W30" t="n">
-        <v>345.004439675971</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X30" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>345.004439675971</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6661,10 +6663,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>593.6552238493341</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C33" t="n">
-        <v>419.2021945682071</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D33" t="n">
-        <v>270.2677849069559</v>
+        <v>405.5176083365153</v>
       </c>
       <c r="E33" t="n">
-        <v>270.2677849069559</v>
+        <v>246.2801533310598</v>
       </c>
       <c r="F33" t="n">
-        <v>270.2677849069559</v>
+        <v>99.74559535794478</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>99.74559535794478</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y33" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C35" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>475.3318284112885</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W35" t="n">
-        <v>475.3318284112885</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>475.3318284112885</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.3318284112885</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327.4530077769195</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P36" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>770.456616214195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>770.456616214195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>770.456616214195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>535.3045079824524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>535.3045079824524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>327.4530077769195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>327.4530077769195</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7132,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7199,13 +7201,13 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>376.1934816808115</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V38" t="n">
         <v>262.7299197543128</v>
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.04605772994853</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>332.7755730879856</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>173.5381180825301</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>173.5381180825301</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>173.5381180825301</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>60.16898249010943</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>55.04605772994853</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.04605772994853</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7494,13 +7496,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>838.9243754698493</v>
+        <v>844.0809192522559</v>
       </c>
       <c r="T42" t="n">
-        <v>636.7377808286153</v>
+        <v>641.8943246110218</v>
       </c>
       <c r="U42" t="n">
-        <v>636.7377808286153</v>
+        <v>413.6707063474109</v>
       </c>
       <c r="V42" t="n">
-        <v>401.5856725968725</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="W42" t="n">
-        <v>401.5856725968725</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X42" t="n">
-        <v>193.7341723913397</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
@@ -7637,7 +7639,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>683.4224531698892</v>
+        <v>116.3179233773244</v>
       </c>
       <c r="C45" t="n">
-        <v>508.9694238887622</v>
+        <v>116.3179233773244</v>
       </c>
       <c r="D45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y45" t="n">
-        <v>851.6377901899573</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7984,16 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8061,22 +8063,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,10 +9491,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11142,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,7 +11153,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>403.4390107198425</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104.3983415011523</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>25.17337195348689</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23786,13 +23788,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23820,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>89.89834768591406</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24014,19 +24016,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>41.05154800304288</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>156.4607273548804</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,7 +24256,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24272,7 +24274,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>42.70668231727912</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.24018562726755</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>110.9575212988316</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>54.73595870413449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>93.23026481143845</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>9.241409142173097</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24853,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,16 +25004,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.102186020931413</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>32.57563651124174</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25047,13 +25049,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>140.1318817691307</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>80.17647135300423</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>247.4175514543149</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>137.3012335147773</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>49.6642631915752</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>47.80171886345882</v>
+        <v>52.90669720804127</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,7 +25772,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25837,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25946,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>51.37865310019819</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>94.38752410983223</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26032,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.593260554236</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26044,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>340748.4685793751</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793751</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
@@ -26335,7 +26337,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="J2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="K2" t="n">
         <v>257549.0424235651</v>
@@ -26344,10 +26346,10 @@
         <v>257549.0424235651</v>
       </c>
       <c r="M2" t="n">
+        <v>257549.0424235652</v>
+      </c>
+      <c r="N2" t="n">
         <v>257549.0424235651</v>
-      </c>
-      <c r="N2" t="n">
-        <v>257549.0424235652</v>
       </c>
       <c r="O2" t="n">
         <v>257549.0424235651</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,7 +26420,7 @@
         <v>341864.8743836956</v>
       </c>
       <c r="C4" t="n">
-        <v>295860.2172754403</v>
+        <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
         <v>295860.2172754402</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239628.0562379175</v>
+        <v>239628.0562379176</v>
       </c>
       <c r="C6" t="n">
         <v>231589.5634189495</v>
@@ -26543,19 +26545,19 @@
         <v>225980.6840188226</v>
       </c>
       <c r="J6" t="n">
-        <v>211979.4518785434</v>
+        <v>211979.4518785433</v>
       </c>
       <c r="K6" t="n">
-        <v>177723.73108519</v>
+        <v>177723.7310851899</v>
       </c>
       <c r="L6" t="n">
         <v>225980.6840188226</v>
       </c>
       <c r="M6" t="n">
+        <v>225980.6840188227</v>
+      </c>
+      <c r="N6" t="n">
         <v>225980.6840188226</v>
-      </c>
-      <c r="N6" t="n">
-        <v>225980.6840188227</v>
       </c>
       <c r="O6" t="n">
         <v>225980.6840188226</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.5492954661294</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>248.3305891818766</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>90.95627293750474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>67.19727055120424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>222.8456210324931</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27630,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>185.0989125581653</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27661,16 +27663,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>98.1150801650378</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27746,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>49.86325542444536</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>114.792179629552</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.2384051249601</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.93853653214836</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27935,22 +27937,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>141.7447092414195</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>74.02574479203156</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28068,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>141.2201675643428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34702,16 +34704,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34781,22 +34783,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,10 +36211,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,7 +37873,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1940188.288912588</v>
+        <v>1871336.992471151</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.0150637259599</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
-        <v>3.015063725959907</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,58 +746,58 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>46.38724422570589</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,46 +825,46 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26.16190956546853</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>223.4994981799305</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>107.0462203894556</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>182.9373317249799</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.157313031983</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>80.83011447495538</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>76.09118681301986</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>84.19667283955532</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.86372679529251</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>122.2716936111519</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>50.53644794958784</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1542,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1606,64 +1606,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>108.2953254812187</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1852,64 +1852,64 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>34.02590961434925</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>110.2663810089075</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>170.808240367094</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.10628614960025</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>1.809496073036132</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>112.04176299373</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>73.13541853642268</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,40 +2730,40 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="V29" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2873,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>196.5315760613044</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>60.92095291038925</v>
       </c>
     </row>
     <row r="31">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3110,22 +3110,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>30.70650130710997</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>79.65980772525472</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>200.4909145794395</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,52 +3429,52 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>39.73236965983988</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>219.6172587848138</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3678,40 +3678,40 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3748,55 +3748,55 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>118.7764738957966</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>157.0936159469526</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,65 +3976,65 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>96.06641246444056</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>152.0246714969779</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4333,13 +4333,13 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
         <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
         <v>108.0953086000985</v>
@@ -4357,25 +4357,25 @@
         <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="U2" t="n">
-        <v>146.859922150451</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
         <v>57.25840604064623</v>
@@ -4421,40 +4421,40 @@
         <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="E4" t="n">
         <v>84.76023320505688</v>
       </c>
       <c r="F4" t="n">
-        <v>30.70717359904702</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="G4" t="n">
         <v>30.70717359904702</v>
@@ -4485,7 +4485,7 @@
         <v>30.70717359904702</v>
       </c>
       <c r="I4" t="n">
-        <v>30.70717359904702</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
         <v>4.28100232079598</v>
@@ -4512,28 +4512,28 @@
         <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.0940480307835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C5" t="n">
-        <v>358.0940480307835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D5" t="n">
-        <v>358.0940480307835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E5" t="n">
-        <v>358.0940480307835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F5" t="n">
-        <v>114.6452713866835</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>601.5428246748836</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y5" t="n">
-        <v>601.5428246748836</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>307.7005108416342</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C6" t="n">
-        <v>307.7005108416342</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7661011803829</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>475.9158478617022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>475.9158478617022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>475.9158478617022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>475.9158478617022</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>784.1002736601483</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>784.1002736601483</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>784.1002736601483</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>540.6514970160482</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>297.2027203719481</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132.6502787026334</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>575.6538871399089</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>340.5017789081662</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W9" t="n">
-        <v>340.5017789081662</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X9" t="n">
-        <v>132.6502787026334</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y9" t="n">
-        <v>132.6502787026334</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C11" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D11" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E11" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F11" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X11" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y11" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>317.2409336147255</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="C12" t="n">
-        <v>142.7879043335984</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5132,10 +5132,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>739.5928938405093</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="V12" t="n">
-        <v>728.9050472788936</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="W12" t="n">
-        <v>485.4562706347935</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="X12" t="n">
-        <v>485.4562706347935</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="Y12" t="n">
-        <v>485.4562706347935</v>
+        <v>511.3692755768984</v>
       </c>
     </row>
     <row r="13">
@@ -5190,16 +5190,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5360,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L15" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5393,16 +5393,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5545,10 +5545,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
         <v>506.1786963984129</v>
@@ -5557,10 +5557,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>370.2385984713777</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C18" t="n">
-        <v>370.2385984713777</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D18" t="n">
-        <v>370.2385984713777</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E18" t="n">
-        <v>370.2385984713777</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>578.0900986769104</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>578.0900986769104</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>578.0900986769104</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W18" t="n">
-        <v>578.0900986769104</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X18" t="n">
-        <v>370.2385984713777</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y18" t="n">
-        <v>370.2385984713777</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
         <v>19.28114311021272</v>
@@ -5712,13 +5712,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>730.9364916182745</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C21" t="n">
-        <v>556.4834623371476</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D21" t="n">
-        <v>407.5490526758962</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>248.3115976704407</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5843,40 +5843,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>904.3538361676057</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>730.9364916182745</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>730.9364916182745</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>730.9364916182745</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>730.9364916182745</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>730.9364916182745</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>730.9364916182745</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>730.9364916182745</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>962.2293816994886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.0774898247174</v>
+        <v>682.6683205171034</v>
       </c>
       <c r="C24" t="n">
-        <v>125.0774898247174</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6074,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.0774898247174</v>
+        <v>850.8836575371715</v>
       </c>
     </row>
     <row r="25">
@@ -6189,10 +6189,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
         <v>506.1786963984129</v>
@@ -6217,7 +6217,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y26" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U26" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>789.0134659257212</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="V27" t="n">
-        <v>526.7184526376595</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2696759935595</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="X27" t="n">
-        <v>75.41817578802664</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y27" t="n">
-        <v>75.41817578802664</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6496,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>627.9339654430905</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>461.2466632505798</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>461.2466632505798</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>217.7978866064798</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>627.9339654430905</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6663,10 +6663,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="E32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>728.9050472788936</v>
+        <v>189.028636514577</v>
       </c>
       <c r="C33" t="n">
-        <v>554.4520179977666</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>405.5176083365153</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>246.2801533310598</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>99.74559535794478</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>99.74559535794478</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y33" t="n">
-        <v>728.9050472788936</v>
+        <v>189.028636514577</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V35" t="n">
-        <v>738.7078125165641</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W35" t="n">
-        <v>738.7078125165641</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X35" t="n">
-        <v>738.7078125165641</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y35" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>648.4405950311615</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C36" t="n">
-        <v>473.9875657500345</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>325.0531560887832</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y36" t="n">
-        <v>816.6559320512295</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>481.7099827492369</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C39" t="n">
-        <v>481.7099827492369</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D39" t="n">
-        <v>332.7755730879856</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E39" t="n">
-        <v>173.5381180825301</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F39" t="n">
-        <v>173.5381180825301</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>173.5381180825301</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>60.16898249010943</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7259,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>366.6176013859157</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>366.6176013859157</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y39" t="n">
-        <v>481.7099827492369</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7359,25 +7359,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>844.0809192522559</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>641.8943246110218</v>
+        <v>805.3767353621993</v>
       </c>
       <c r="U42" t="n">
-        <v>413.6707063474109</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="V42" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="W42" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="X42" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.5185981156682</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7614,7 +7614,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>116.3179233773244</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3179233773244</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>735.8335372470253</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W45" t="n">
-        <v>492.3847606029253</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>284.5332603973924</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7794,7 +7794,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,13 +8780,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>403.4390107198425</v>
+        <v>300.3445504287207</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>25.17337195348689</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>149.6282807452338</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>97.38737029608565</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23785,19 +23785,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23816,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>113.4191559502895</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>89.89834768591406</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.900258621221752</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.05154800304288</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>227.1458758085334</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24253,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>207.2105735132092</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>42.70668231727912</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24335,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>93.64093278357433</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.9575212988316</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>127.0293101583989</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24736,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>249.5361568348004</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24761,19 +24761,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>9.241409142173097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>144.7617428669151</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24976,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24998,22 +24998,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>142.0019976812058</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>32.57563651124174</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25128,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>273.9090123488199</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25292,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>5.282070624037999</v>
       </c>
       <c r="Y36" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>247.4175514543149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>49.6642631915752</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>13.1833283646115</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,16 +25675,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25757,16 +25757,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>52.90669720804127</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>43.07111274786902</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>51.37865310019819</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>80.7759156524474</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340748.4685793752</v>
+        <v>340748.4685793753</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340748.4685793753</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340748.4685793751</v>
+        <v>340748.4685793752</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
@@ -26328,13 +26328,13 @@
         <v>257549.0424235651</v>
       </c>
       <c r="G2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="H2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="I2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="J2" t="n">
         <v>257549.0424235651</v>
@@ -26349,7 +26349,7 @@
         <v>257549.0424235652</v>
       </c>
       <c r="N2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="O2" t="n">
         <v>257549.0424235651</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341864.8743836956</v>
+        <v>341864.8743836955</v>
       </c>
       <c r="C4" t="n">
         <v>295860.2172754402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239628.0562379176</v>
+        <v>239628.0562379174</v>
       </c>
       <c r="C6" t="n">
-        <v>231589.5634189495</v>
+        <v>231589.5634189498</v>
       </c>
       <c r="D6" t="n">
-        <v>292165.8856056178</v>
+        <v>292165.8856056177</v>
       </c>
       <c r="E6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987821</v>
       </c>
       <c r="F6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987821</v>
       </c>
       <c r="G6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987822</v>
       </c>
       <c r="H6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987822</v>
       </c>
       <c r="I6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987823</v>
       </c>
       <c r="J6" t="n">
-        <v>211979.4518785433</v>
+        <v>199761.4412585029</v>
       </c>
       <c r="K6" t="n">
-        <v>177723.7310851899</v>
+        <v>165505.7204651495</v>
       </c>
       <c r="L6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987821</v>
       </c>
       <c r="M6" t="n">
-        <v>225980.6840188227</v>
+        <v>213762.6733987822</v>
       </c>
       <c r="N6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987822</v>
       </c>
       <c r="O6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987822</v>
       </c>
       <c r="P6" t="n">
-        <v>225980.6840188226</v>
+        <v>213762.6733987822</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>379.7187779375207</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27429,22 +27429,22 @@
         <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>248.3305891818766</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>185.6667515974615</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>92.92143363661941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>129.2885653617898</v>
       </c>
       <c r="J4" t="n">
-        <v>67.19727055120424</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>123.7808623672197</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>183.3765475617809</v>
       </c>
       <c r="G5" t="n">
-        <v>320.892250521429</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>59.48696326041173</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27748,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>49.86325542444536</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.5284965833702</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>114.792179629552</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.93853653214836</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>305.4078241810982</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>36.1442574234766</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>141.7447092414195</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>51.30969674795439</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28061,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>115.8205630125936</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35500,13 +35500,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
